--- a/ExampleControl.xlsx
+++ b/ExampleControl.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jabraham/Development/hubitat_pid_thermostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706878F-CA28-934E-90B2-1FADDB2B33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD1431-5D7C-6646-9448-ED4149947661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="3420" windowWidth="43360" windowHeight="21780" xr2:uid="{B5BB93EB-2E94-6745-877B-FB842C9EB10D}"/>
+    <workbookView xWindow="6060" yWindow="7020" windowWidth="43360" windowHeight="21780" activeTab="1" xr2:uid="{B5BB93EB-2E94-6745-877B-FB842C9EB10D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4205,7 +4206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61413B9-4784-EB4E-9DB6-5A34D47D5024}">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4351,7 +4352,7 @@
         <v>0.3</v>
       </c>
       <c r="L3">
-        <f>L2+F3+G3+H3</f>
+        <f t="shared" ref="L3:L34" si="1">L2+F3+G3+H3</f>
         <v>0.3</v>
       </c>
     </row>
@@ -4370,27 +4371,27 @@
         <v>0.19999999999999929</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="1">$T$2*(E4-E3)</f>
+        <f t="shared" ref="F4:F67" si="2">$T$2*(E4-E3)</f>
         <v>8.9999999999999677E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="2">$U$2*E3</f>
+        <f t="shared" ref="G4:G67" si="3">$U$2*E3</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="3">I3+F4</f>
+        <f t="shared" ref="I4:I67" si="4">I3+F4</f>
         <v>8.9999999999999677E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="4">J3+H4</f>
+        <f t="shared" ref="J4:J67" si="5">J3+H4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="5">L4-J4-I4</f>
+        <f t="shared" ref="K4:K67" si="6">L4-J4-I4</f>
         <v>0.3</v>
       </c>
       <c r="L4">
-        <f>L3+F4+G4+H4</f>
+        <f t="shared" si="1"/>
         <v>0.38999999999999968</v>
       </c>
     </row>
@@ -4409,27 +4410,27 @@
         <v>0.39999999999999858</v>
       </c>
       <c r="F5">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999677E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999861E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.17999999999999935</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0.3004</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>8.9999999999999677E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999861E-4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.17999999999999935</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>0.3004</v>
-      </c>
-      <c r="L5">
-        <f>L4+F5+G5+H5</f>
         <v>0.48039999999999938</v>
       </c>
     </row>
@@ -4448,27 +4449,27 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-4.4999999999999041E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999722E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.13500000000000031</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>-4.4999999999999041E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>7.9999999999999722E-4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0.13500000000000031</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>0.30120000000000002</v>
-      </c>
-      <c r="L6">
-        <f>L5+F6+G6+H6</f>
         <v>0.43620000000000037</v>
       </c>
     </row>
@@ -4487,27 +4488,27 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000147E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>4.5000000000000637E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000147E-4</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>4.5000000000000637E-2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>0.30180000000000001</v>
-      </c>
-      <c r="L7">
-        <f>L6+F7+G7+H7</f>
         <v>0.34680000000000066</v>
       </c>
     </row>
@@ -4526,31 +4527,31 @@
         <v>-0.10000000000000142</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-9.0000000000001287E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000286E-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H39" si="7">$V$2*M8</f>
+        <v>-0.10649999999999891</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-4.5000000000000651E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>-0.10649999999999891</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>-9.0000000000001287E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000286E-4</v>
-      </c>
-      <c r="H8">
-        <f>$V$2*M8</f>
-        <v>-0.10649999999999891</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>-4.5000000000000651E-2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>-0.10649999999999891</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="L8">
-        <f>L7+F8+G8+H8</f>
         <v>0.15050000000000041</v>
       </c>
       <c r="M8">
@@ -4597,59 +4598,59 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000644E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000286E-4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>-2.4500000000000483E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>-0.13099999999999939</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.30179999999999996</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.5000000000000644E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>-2.0000000000000286E-4</v>
-      </c>
-      <c r="H9">
-        <f>$V$2*M9</f>
-        <v>-2.4500000000000483E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>-0.13099999999999939</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>0.30179999999999996</v>
-      </c>
-      <c r="L9">
-        <f>L8+F9+G9+H9</f>
         <v>0.17080000000000056</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M72" si="6">(2*E9-27*E8+270*E7-490*E6+270*E5-27*E4+2*E3)/180</f>
+        <f t="shared" ref="M9:M72" si="8">(2*E9-27*E8+270*E7-490*E6+270*E5-27*E4+2*E3)/180</f>
         <v>-8.1666666666668275E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N72" si="7">-0.2+$T$2*E9</f>
+        <f t="shared" ref="N9:N72" si="9">-0.2+$T$2*E9</f>
         <v>-0.2</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O72" si="8">N9-ABS(H9)</f>
+        <f t="shared" ref="O9:O72" si="10">N9-ABS(H9)</f>
         <v>-0.2245000000000005</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" ref="P9:P72" si="9">IF(L9&lt;O9,"Yes","")</f>
+        <f t="shared" ref="P9:P72" si="11">IF(L9&lt;O9,"Yes","")</f>
         <v/>
       </c>
       <c r="Q9">
-        <f t="shared" ref="Q9:Q72" si="10">1.2+$T$2*E9</f>
+        <f t="shared" ref="Q9:Q72" si="12">1.2+$T$2*E9</f>
         <v>1.2</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:R72" si="11">Q9+ABS(H9)</f>
+        <f t="shared" ref="R9:R72" si="13">Q9+ABS(H9)</f>
         <v>1.2245000000000004</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" ref="S9:S72" si="12">IF(L9&gt;R9,"Yes","")</f>
+        <f t="shared" ref="S9:S72" si="14">IF(L9&gt;R9,"Yes","")</f>
         <v/>
       </c>
     </row>
@@ -4668,59 +4669,59 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10">
-        <f>$V$2*M10</f>
-        <v>-9.0000000000014062E-3</v>
-      </c>
-      <c r="I10">
+      <c r="G10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>-9.0000000000014062E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.14000000000000079</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30179999999999996</v>
       </c>
       <c r="L10">
-        <f>L9+F10+G10+H10</f>
+        <f t="shared" si="1"/>
         <v>0.16179999999999917</v>
       </c>
       <c r="M10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.000000000000469E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.20900000000000141</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2090000000000014</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -4739,59 +4740,59 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11">
-        <f>$V$2*M11</f>
-        <v>0.11450000000000175</v>
-      </c>
-      <c r="I11">
+      <c r="G11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>0.11450000000000175</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5499999999999037E-2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30179999999999996</v>
       </c>
       <c r="L11">
-        <f>L10+F11+G11+H11</f>
+        <f t="shared" si="1"/>
         <v>0.27630000000000093</v>
       </c>
       <c r="M11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38166666666667254</v>
       </c>
       <c r="N11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.31450000000000178</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3145000000000018</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -4813,59 +4814,59 @@
         <v>2</v>
       </c>
       <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>-4.1833333333334034E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-6.7333333333333079E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>0.30179999999999996</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>$V$2*M12</f>
-        <v>-4.1833333333334034E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>-6.7333333333333079E-2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>0.30179999999999996</v>
-      </c>
-      <c r="L12">
-        <f>L11+F12+G12+H12</f>
         <v>1.134466666666667</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.13944444444444679</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="O12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.6581666666666659</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1418333333333339</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -4884,55 +4885,55 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999677E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>-7.7833333333333254E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.98999999999999966</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>-0.14516666666666633</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>0.30580000000000018</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>8.9999999999999677E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H13">
-        <f>$V$2*M13</f>
-        <v>-7.7833333333333254E-2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0.98999999999999966</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>-0.14516666666666633</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>0.30580000000000018</v>
-      </c>
-      <c r="L13">
-        <f>L12+F13+G13+H13</f>
         <v>1.1506333333333334</v>
       </c>
       <c r="M13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.2594444444444442</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.78999999999999959</v>
       </c>
       <c r="O13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.71216666666666639</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1899999999999995</v>
       </c>
       <c r="R13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2678333333333329</v>
       </c>
       <c r="S13" t="str">
@@ -4955,59 +4956,59 @@
         <v>2.1000000000000014</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-4.4999999999999041E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999985E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0.80766666666666675</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.94500000000000062</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.66250000000000042</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>0.31020000000000014</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>-4.4999999999999041E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>4.3999999999999985E-3</v>
-      </c>
-      <c r="H14">
-        <f>$V$2*M14</f>
-        <v>0.80766666666666675</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.94500000000000062</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.66250000000000042</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>0.31020000000000014</v>
-      </c>
-      <c r="L14">
-        <f>L13+F14+G14+H14</f>
         <v>1.9177000000000011</v>
       </c>
       <c r="M14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6922222222222225</v>
       </c>
       <c r="N14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74500000000000055</v>
       </c>
       <c r="O14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.2666666666666204E-2</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1450000000000005</v>
       </c>
       <c r="R14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9526666666666674</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5026,43 +5027,43 @@
         <v>2</v>
       </c>
       <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-4.5000000000000644E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000032E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>-0.73116666666666719</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>-6.8666666666666765E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>0.3143999999999999</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
-        <v>-4.5000000000000644E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>4.2000000000000032E-3</v>
-      </c>
-      <c r="H15">
-        <f>$V$2*M15</f>
-        <v>-0.73116666666666719</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>-6.8666666666666765E-2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>0.3143999999999999</v>
-      </c>
-      <c r="L15">
-        <f>L14+F15+G15+H15</f>
         <v>1.1457333333333333</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.437222222222224</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="O15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.1166666666667231E-2</v>
       </c>
       <c r="P15" t="str">
@@ -5070,15 +5071,15 @@
         <v/>
       </c>
       <c r="Q15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
       <c r="R15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.8311666666666673</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5097,59 +5098,59 @@
         <v>2</v>
       </c>
       <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>-3.4999999999998671E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>-0.10366666666666544</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>0.31840000000000013</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H16">
-        <f>$V$2*M16</f>
-        <v>-3.4999999999998671E-2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>-0.10366666666666544</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>0.31840000000000013</v>
-      </c>
-      <c r="L16">
-        <f>L15+F16+G16+H16</f>
         <v>1.1147333333333347</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.11666666666666224</v>
       </c>
       <c r="N16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="O16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.66500000000000126</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
       <c r="R16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1349999999999989</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5168,59 +5169,59 @@
         <v>2.1000000000000014</v>
       </c>
       <c r="F17">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000644E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>1.9999999999985598E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.94500000000000062</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>-0.10166666666666688</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>0.32240000000000013</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.5000000000000644E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H17">
-        <f>$V$2*M17</f>
-        <v>1.9999999999985598E-3</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0.94500000000000062</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>-0.10166666666666688</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>0.32240000000000013</v>
-      </c>
-      <c r="L17">
-        <f>L16+F17+G17+H17</f>
         <v>1.165733333333334</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6666666666618662E-3</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74500000000000055</v>
       </c>
       <c r="O17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74300000000000199</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1450000000000005</v>
       </c>
       <c r="R17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1469999999999989</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5239,59 +5240,59 @@
         <v>1.8999999999999986</v>
       </c>
       <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-9.0000000000001287E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000032E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>3.1166666666667217E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.85499999999999932</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>-7.049999999999966E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>0.32660000000000022</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
-        <v>-9.0000000000001287E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>4.2000000000000032E-3</v>
-      </c>
-      <c r="H18">
-        <f>$V$2*M18</f>
-        <v>3.1166666666667217E-2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999932</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>-7.049999999999966E-2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>0.32660000000000022</v>
-      </c>
-      <c r="L18">
-        <f>L17+F18+G18+H18</f>
         <v>1.1111</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10388888888889072</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.65499999999999936</v>
       </c>
       <c r="O18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.62383333333333213</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.0549999999999993</v>
       </c>
       <c r="R18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0861666666666663</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5310,59 +5311,59 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-4.4999999999999041E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>3.7999999999999974E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>4.5000000000000616E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.81000000000000028</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>-2.5499999999999044E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>0.33040000000000025</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
-        <v>-4.4999999999999041E-2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>3.7999999999999974E-3</v>
-      </c>
-      <c r="H19">
-        <f>$V$2*M19</f>
-        <v>4.5000000000000616E-2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>0.81000000000000028</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>-2.5499999999999044E-2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
-        <v>0.33040000000000025</v>
-      </c>
-      <c r="L19">
-        <f>L18+F19+G19+H19</f>
         <v>1.1149000000000016</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15000000000000205</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61000000000000032</v>
       </c>
       <c r="O19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.56499999999999972</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.0100000000000002</v>
       </c>
       <c r="R19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.055000000000001</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5381,59 +5382,59 @@
         <v>1.6000000000000014</v>
       </c>
       <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000016E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>-0.11866666666666832</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.72000000000000064</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>-0.14416666666666736</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>0.3340000000000003</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>3.6000000000000016E-3</v>
-      </c>
-      <c r="H20">
-        <f>$V$2*M20</f>
-        <v>-0.11866666666666832</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>0.72000000000000064</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>-0.14416666666666736</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>0.3340000000000003</v>
-      </c>
-      <c r="L20">
-        <f>L19+F20+G20+H20</f>
         <v>0.9098333333333336</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.3955555555555611</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.52000000000000068</v>
       </c>
       <c r="O20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.40133333333333238</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9200000000000006</v>
       </c>
       <c r="R20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0386666666666691</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5452,59 +5453,59 @@
         <v>1.3999999999999986</v>
       </c>
       <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-9.0000000000001287E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000028E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>5.2666666666668596E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.62999999999999934</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>-9.1499999999998763E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>0.33720000000000039</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
-        <v>-9.0000000000001287E-2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000028E-3</v>
-      </c>
-      <c r="H21">
-        <f>$V$2*M21</f>
-        <v>5.2666666666668596E-2</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>0.62999999999999934</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>-9.1499999999998763E-2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
-        <v>0.33720000000000039</v>
-      </c>
-      <c r="L21">
-        <f>L20+F21+G21+H21</f>
         <v>0.87570000000000092</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.17555555555556199</v>
       </c>
       <c r="N21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.42999999999999933</v>
       </c>
       <c r="O21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.37733333333333074</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8299999999999992</v>
       </c>
       <c r="R21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8826666666666678</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5523,59 +5524,59 @@
         <v>1.1999999999999993</v>
       </c>
       <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>2.7999999999999974E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>-4.1833333333333833E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.5399999999999997</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>-0.13333333333333258</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>0.34000000000000041</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>2.7999999999999974E-3</v>
-      </c>
-      <c r="H22">
-        <f>$V$2*M22</f>
-        <v>-4.1833333333333833E-2</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>0.5399999999999997</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>-0.13333333333333258</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
-        <v>0.34000000000000041</v>
-      </c>
-      <c r="L22">
-        <f>L21+F22+G22+H22</f>
         <v>0.74666666666666748</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.13944444444444612</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33999999999999969</v>
       </c>
       <c r="O22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.29816666666666586</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7399999999999998</v>
       </c>
       <c r="R22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7818333333333336</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5594,59 +5595,59 @@
         <v>1</v>
       </c>
       <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>2.3999999999999985E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>4.1666666666652571E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>-0.12916666666666732</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>0.34240000000000032</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>2.3999999999999985E-3</v>
-      </c>
-      <c r="H23">
-        <f>$V$2*M23</f>
-        <v>4.1666666666652571E-3</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>-0.12916666666666732</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
-        <v>0.34240000000000032</v>
-      </c>
-      <c r="L23">
-        <f>L22+F23+G23+H23</f>
         <v>0.66323333333333301</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3888888888884192E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="O23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24583333333333474</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.65</v>
       </c>
       <c r="R23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6541666666666652</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5665,59 +5666,59 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333182222E-4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.36000000000000032</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>-0.12949999999999914</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>0.34440000000000037</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="H24">
-        <f>$V$2*M24</f>
-        <v>-3.3333333333182222E-4</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>0.36000000000000032</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>-0.12949999999999914</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
-        <v>0.34440000000000037</v>
-      </c>
-      <c r="L24">
-        <f>L23+F24+G24+H24</f>
         <v>0.57490000000000152</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.1111111111060741E-3</v>
       </c>
       <c r="N24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16000000000000031</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.15966666666666848</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5600000000000003</v>
       </c>
       <c r="R24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.560333333333332</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5736,59 +5737,59 @@
         <v>0.5</v>
       </c>
       <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-0.13500000000000031</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000014E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333352756E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>-0.12983333333333266</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>0.34600000000000031</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="1"/>
-        <v>-0.13500000000000031</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1.6000000000000014E-3</v>
-      </c>
-      <c r="H25">
-        <f>$V$2*M25</f>
-        <v>-3.3333333333352756E-4</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>-0.12983333333333266</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
-        <v>0.34600000000000031</v>
-      </c>
-      <c r="L25">
-        <f>L24+F25+G25+H25</f>
         <v>0.44116666666666765</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.1111111111117586E-3</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4666666666666465E-2</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.425</v>
       </c>
       <c r="R25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4253333333333336</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5807,59 +5808,59 @@
         <v>0.19999999999999929</v>
       </c>
       <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-0.13500000000000031</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>3.8333333333334589E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999691E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>-0.1259999999999992</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>0.34700000000000036</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="1"/>
-        <v>-0.13500000000000031</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="H26">
-        <f>$V$2*M26</f>
-        <v>3.8333333333334589E-3</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>8.9999999999999691E-2</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>-0.1259999999999992</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
-        <v>0.34700000000000036</v>
-      </c>
-      <c r="L26">
-        <f>L25+F26+G26+H26</f>
         <v>0.31100000000000083</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2777777777778197E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.11000000000000033</v>
       </c>
       <c r="O26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.11383333333333379</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2899999999999996</v>
       </c>
       <c r="R26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2938333333333329</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5878,59 +5879,59 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999861E-4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>-3.6666666666667166E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>-0.16266666666666635</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>0.34740000000000032</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>3.9999999999999861E-4</v>
-      </c>
-      <c r="H27">
-        <f>$V$2*M27</f>
-        <v>-3.6666666666667166E-2</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>-0.16266666666666635</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>0.34740000000000032</v>
-      </c>
-      <c r="L27">
-        <f>L26+F27+G27+H27</f>
         <v>0.18473333333333397</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.12222222222222388</v>
       </c>
       <c r="N27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.23666666666666719</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="R27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.236666666666667</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -5949,59 +5950,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>-1.1842378929335004E-17</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>-0.16266666666666635</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>0.34740000000000032</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f>$V$2*M28</f>
-        <v>-1.1842378929335004E-17</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>-0.16266666666666635</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>0.34740000000000032</v>
-      </c>
-      <c r="L28">
-        <f>L27+F28+G28+H28</f>
         <v>9.473333333333428E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.9474596431116678E-17</v>
       </c>
       <c r="N28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6020,59 +6021,59 @@
         <v>-0.39999999999999858</v>
       </c>
       <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999677E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999861E-4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>3.6666666666667166E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>-0.17999999999999935</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>-0.12599999999999917</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>0.34700000000000031</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999677E-2</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>-3.9999999999999861E-4</v>
-      </c>
-      <c r="H29">
-        <f>$V$2*M29</f>
-        <v>3.6666666666667166E-2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>-0.17999999999999935</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>-0.12599999999999917</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
-        <v>0.34700000000000031</v>
-      </c>
-      <c r="L29">
-        <f>L28+F29+G29+H29</f>
         <v>4.1000000000001771E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1222222222222239</v>
       </c>
       <c r="N29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.37999999999999934</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.41666666666666652</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0200000000000007</v>
       </c>
       <c r="R29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0566666666666678</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6091,59 +6092,59 @@
         <v>-0.60000000000000142</v>
       </c>
       <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-9.0000000000001287E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>-7.9999999999999722E-4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>-3.8333333333333995E-3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>-0.27000000000000063</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>-0.12983333333333258</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>0.34620000000000029</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="1"/>
-        <v>-9.0000000000001287E-2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>-7.9999999999999722E-4</v>
-      </c>
-      <c r="H30">
-        <f>$V$2*M30</f>
-        <v>-3.8333333333333995E-3</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>-0.27000000000000063</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>-0.12983333333333258</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>0.34620000000000029</v>
-      </c>
-      <c r="L30">
-        <f>L29+F30+G30+H30</f>
         <v>-5.3633333333332908E-2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.2777777777777999E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.47000000000000064</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.47383333333333405</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.92999999999999927</v>
       </c>
       <c r="R30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.93383333333333263</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6162,59 +6163,59 @@
         <v>-0.5</v>
       </c>
       <c r="F31">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000644E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000029E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>1.3333333333334883E-3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>-0.22499999999999998</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>-0.12849999999999909</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0.34500000000000031</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="1"/>
-        <v>4.5000000000000644E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>-1.2000000000000029E-3</v>
-      </c>
-      <c r="H31">
-        <f>$V$2*M31</f>
-        <v>1.3333333333334883E-3</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>-0.22499999999999998</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>-0.12849999999999909</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>0.34500000000000031</v>
-      </c>
-      <c r="L31">
-        <f>L30+F31+G31+H31</f>
         <v>-8.4999999999987794E-3</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4444444444449614E-3</v>
       </c>
       <c r="N31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.42500000000000004</v>
       </c>
       <c r="O31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.42633333333333351</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="R31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.9763333333333335</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6233,59 +6234,59 @@
         <v>-0.39999999999999858</v>
       </c>
       <c r="F32">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000644E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>-1E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>-1.1500000000001502E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>-0.17999999999999933</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>0.34400000000000031</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="1"/>
-        <v>4.5000000000000644E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>-1E-3</v>
-      </c>
-      <c r="H32">
-        <f>$V$2*M32</f>
-        <v>-1.1500000000001502E-2</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>-0.17999999999999933</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>0.34400000000000031</v>
-      </c>
-      <c r="L32">
-        <f>L31+F32+G32+H32</f>
         <v>2.4000000000000361E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.833333333333834E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.37999999999999934</v>
       </c>
       <c r="O32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.39150000000000085</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0200000000000007</v>
       </c>
       <c r="R32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0315000000000021</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6304,59 +6305,59 @@
         <v>-0.30000000000000071</v>
       </c>
       <c r="F33">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999041E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>-7.9999999999999722E-4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>0.11100000000000167</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>-0.13500000000000029</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>-2.8999999999998929E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>0.34320000000000028</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="1"/>
-        <v>4.4999999999999041E-2</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>-7.9999999999999722E-4</v>
-      </c>
-      <c r="H33">
-        <f>$V$2*M33</f>
-        <v>0.11100000000000167</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
-        <v>-0.13500000000000029</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>-2.8999999999998929E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
-        <v>0.34320000000000028</v>
-      </c>
-      <c r="L33">
-        <f>L32+F33+G33+H33</f>
         <v>0.17920000000000108</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37000000000000555</v>
       </c>
       <c r="N33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.3350000000000003</v>
       </c>
       <c r="O33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.44600000000000195</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0649999999999997</v>
       </c>
       <c r="R33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1760000000000015</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6375,59 +6376,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F34">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000644E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000147E-4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>-1.150000000000008E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>-8.9999999999999636E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>-4.0499999999999009E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>0.34260000000000035</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="1"/>
-        <v>4.5000000000000644E-2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>-6.0000000000000147E-4</v>
-      </c>
-      <c r="H34">
-        <f>$V$2*M34</f>
-        <v>-1.150000000000008E-2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
-        <v>-8.9999999999999636E-2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>-4.0499999999999009E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
-        <v>0.34260000000000035</v>
-      </c>
-      <c r="L34">
-        <f>L33+F34+G34+H34</f>
         <v>0.21210000000000168</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.8333333333333601E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.30149999999999977</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1215000000000004</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6446,59 +6447,59 @@
         <v>-0.10000000000000142</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4999999999999041E-2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H35">
-        <f>$V$2*M35</f>
+        <f t="shared" si="7"/>
         <v>9.999999999985576E-4</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5000000000000595E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.9500000000000451E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34220000000000028</v>
       </c>
       <c r="L35">
-        <f>L34+F35+G35+H35</f>
+        <f t="shared" ref="L35:L66" si="15">L34+F35+G35+H35</f>
         <v>0.25769999999999926</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3333333333285253E-3</v>
       </c>
       <c r="N35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.24500000000000066</v>
       </c>
       <c r="O35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.24599999999999922</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1549999999999994</v>
       </c>
       <c r="R35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1559999999999979</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6517,59 +6518,59 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5000000000000644E-2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000286E-4</v>
       </c>
       <c r="H36">
-        <f>$V$2*M36</f>
+        <f t="shared" si="7"/>
         <v>1.5868787765308904E-15</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.9499999999998862E-2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34200000000000041</v>
       </c>
       <c r="L36">
-        <f>L35+F36+G36+H36</f>
+        <f t="shared" si="15"/>
         <v>0.30250000000000155</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2895959217696349E-15</v>
       </c>
       <c r="N36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2</v>
       </c>
       <c r="O36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.20000000000000159</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2000000000000015</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6588,59 +6589,59 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5000000000000644E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>$V$2*M37</f>
+        <f t="shared" si="7"/>
         <v>-1.5987211554602253E-15</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5000000000000644E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.9500000000000458E-2</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34200000000000041</v>
       </c>
       <c r="L37">
-        <f>L36+F37+G37+H37</f>
+        <f t="shared" si="15"/>
         <v>0.34750000000000059</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.3290705182007514E-15</v>
       </c>
       <c r="N37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.15499999999999936</v>
       </c>
       <c r="O37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.15500000000000097</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2450000000000006</v>
       </c>
       <c r="R37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2450000000000021</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6659,59 +6660,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13500000000000031</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000286E-4</v>
       </c>
       <c r="H38">
-        <f>$V$2*M38</f>
+        <f t="shared" si="7"/>
         <v>-1.3333333333318779E-3</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999664E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.0833333333332333E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34220000000000039</v>
       </c>
       <c r="L38">
-        <f>L37+F38+G38+H38</f>
+        <f t="shared" si="15"/>
         <v>0.2113666666666684</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.4444444444395933E-3</v>
       </c>
       <c r="N38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.29133333333333156</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1113333333333322</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6730,59 +6731,59 @@
         <v>-0.39999999999999858</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.9999999999999677E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H39">
-        <f>$V$2*M39</f>
+        <f t="shared" si="7"/>
         <v>1.5666666666666603E-2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17999999999999933</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.516666666666573E-2</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34180000000000038</v>
       </c>
       <c r="L39">
-        <f>L38+F39+G39+H39</f>
+        <f t="shared" si="15"/>
         <v>0.13663333333333533</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2222222222222017E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.37999999999999934</v>
       </c>
       <c r="O39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.39566666666666594</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0200000000000007</v>
       </c>
       <c r="R39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0356666666666672</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6801,59 +6802,59 @@
         <v>-0.30000000000000071</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4999999999999041E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.9999999999999722E-4</v>
       </c>
       <c r="H40">
-        <f>$V$2*M40</f>
+        <f t="shared" ref="H40:H72" si="16">$V$2*M40</f>
         <v>-0.15083333333333418</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.13500000000000029</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.17599999999999991</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34100000000000041</v>
       </c>
       <c r="L40">
-        <f>L39+F40+G40+H40</f>
+        <f t="shared" si="15"/>
         <v>3.0000000000000193E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.50277777777778065</v>
       </c>
       <c r="N40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.3350000000000003</v>
       </c>
       <c r="O40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.48583333333333445</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0649999999999997</v>
       </c>
       <c r="R40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.215833333333334</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6872,59 +6873,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5000000000000644E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.0000000000000147E-4</v>
       </c>
       <c r="H41">
-        <f>$V$2*M41</f>
+        <f t="shared" si="16"/>
         <v>4.0833333333334068E-2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999636E-2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.13516666666666582</v>
       </c>
       <c r="K41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34040000000000037</v>
       </c>
       <c r="L41">
-        <f>L40+F41+G41+H41</f>
+        <f t="shared" si="15"/>
         <v>0.11523333333333491</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13611111111111357</v>
       </c>
       <c r="N41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.33083333333333376</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1508333333333345</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6943,59 +6944,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H42">
-        <f>$V$2*M42</f>
+        <f t="shared" si="16"/>
         <v>0.10549999999999875</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999636E-2</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9666666666667077E-2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34000000000000036</v>
       </c>
       <c r="L42">
-        <f>L41+F42+G42+H42</f>
+        <f t="shared" si="15"/>
         <v>0.22033333333333366</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35166666666666252</v>
       </c>
       <c r="N42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.39549999999999846</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2154999999999991</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7014,59 +7015,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H43">
-        <f>$V$2*M43</f>
+        <f t="shared" si="16"/>
         <v>-7.3333333333318682E-3</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999636E-2</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.6999999999998943E-2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33960000000000035</v>
       </c>
       <c r="L43">
-        <f>L42+F43+G43+H43</f>
+        <f t="shared" si="15"/>
         <v>0.21260000000000179</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.4444444444439561E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.29733333333333156</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1173333333333322</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7085,59 +7086,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H44">
-        <f>$V$2*M44</f>
+        <f t="shared" si="16"/>
         <v>-3.6000000000000677E-2</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999636E-2</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.2999999999999621E-2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33920000000000039</v>
       </c>
       <c r="L44">
-        <f>L43+F44+G44+H44</f>
+        <f t="shared" si="15"/>
         <v>0.17620000000000111</v>
       </c>
       <c r="M44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.12000000000000226</v>
       </c>
       <c r="N44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.3260000000000004</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.146000000000001</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7156,59 +7157,59 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H45">
-        <f>$V$2*M45</f>
+        <f t="shared" si="16"/>
         <v>3.8333333333334051E-3</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9999999999999636E-2</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.916666666666621E-2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33880000000000032</v>
       </c>
       <c r="L45">
-        <f>L44+F45+G45+H45</f>
+        <f t="shared" si="15"/>
         <v>0.17963333333333451</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2777777777778018E-2</v>
       </c>
       <c r="N45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2899999999999997</v>
       </c>
       <c r="O45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.29383333333333311</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1100000000000003</v>
       </c>
       <c r="R45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1138333333333337</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7227,59 +7228,59 @@
         <v>-0.10000000000000142</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4999999999999041E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999861E-4</v>
       </c>
       <c r="H46">
-        <f>$V$2*M46</f>
+        <f t="shared" si="16"/>
         <v>5.9211894646675019E-18</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5000000000000595E-2</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.916666666666621E-2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33840000000000037</v>
       </c>
       <c r="L46">
-        <f>L45+F46+G46+H46</f>
+        <f t="shared" si="15"/>
         <v>0.22423333333333353</v>
       </c>
       <c r="M46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9737298215558339E-17</v>
       </c>
       <c r="N46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.24500000000000066</v>
       </c>
       <c r="O46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.24500000000000066</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1549999999999994</v>
       </c>
       <c r="R46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1549999999999994</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7298,59 +7299,59 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0000000000001287E-2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000286E-4</v>
       </c>
       <c r="H47">
-        <f>$V$2*M47</f>
+        <f t="shared" si="16"/>
         <v>-3.4999999999998899E-3</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5000000000000692E-2</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.2666666666666102E-2</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33820000000000033</v>
       </c>
       <c r="L47">
-        <f>L46+F47+G47+H47</f>
+        <f t="shared" si="15"/>
         <v>0.31053333333333494</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.1666666666666299E-2</v>
       </c>
       <c r="N47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.15499999999999936</v>
       </c>
       <c r="O47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.15849999999999925</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2450000000000006</v>
       </c>
       <c r="R47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2485000000000004</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7369,59 +7370,59 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999677E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000286E-4</v>
       </c>
       <c r="H48">
-        <f>$V$2*M48</f>
+        <f t="shared" si="16"/>
         <v>3.3166666666665685E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13500000000000037</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.9500000000000417E-2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33840000000000037</v>
       </c>
       <c r="L48">
-        <f>L47+F48+G48+H48</f>
+        <f t="shared" si="15"/>
         <v>0.43390000000000029</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11055555555555228</v>
       </c>
       <c r="N48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.4999999999999697E-2</v>
       </c>
       <c r="O48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.8166666666665375E-2</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3350000000000002</v>
       </c>
       <c r="R48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3681666666666659</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7443,51 +7444,51 @@
         <v>6</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5649999999999999</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000147E-4</v>
       </c>
       <c r="H49">
-        <f>$V$2*M49</f>
+        <f t="shared" si="16"/>
         <v>5.1500000000002051E-2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000001634E-2</v>
       </c>
       <c r="K49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33900000000000041</v>
       </c>
       <c r="L49">
-        <f>L48+F49+G49+H49</f>
+        <f t="shared" si="15"/>
         <v>3.0510000000000024</v>
       </c>
       <c r="M49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.17166666666667352</v>
       </c>
       <c r="N49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4484999999999979</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="R49">
@@ -7495,7 +7496,7 @@
         <v>3.9515000000000025</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7514,59 +7515,59 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.45</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="H50">
-        <f>$V$2*M50</f>
+        <f t="shared" si="16"/>
         <v>-0.23666666666666819</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.22466666666666657</v>
       </c>
       <c r="K50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35100000000000087</v>
       </c>
       <c r="L50">
-        <f>L49+F50+G50+H50</f>
+        <f t="shared" si="15"/>
         <v>2.3763333333333341</v>
       </c>
       <c r="M50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.78888888888889397</v>
       </c>
       <c r="N50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="O50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8133333333333317</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.45</v>
       </c>
       <c r="R50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.6866666666666683</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7585,59 +7586,59 @@
         <v>4.5</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22500000000000001</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="H51">
-        <f>$V$2*M51</f>
+        <f t="shared" si="16"/>
         <v>2.2938333333333332</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0249999999999999</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0691666666666668</v>
       </c>
       <c r="K51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36100000000000021</v>
       </c>
       <c r="L51">
-        <f>L50+F51+G51+H51</f>
+        <f t="shared" si="15"/>
         <v>4.4551666666666669</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6461111111111109</v>
       </c>
       <c r="N51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.825</v>
       </c>
       <c r="O51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.46883333333333321</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2249999999999996</v>
       </c>
       <c r="R51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.5188333333333333</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7656,59 +7657,59 @@
         <v>4</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22500000000000001</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="H52">
-        <f>$V$2*M52</f>
+        <f t="shared" si="16"/>
         <v>-2.7089999999999996</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.63983333333333281</v>
       </c>
       <c r="K52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37000000000000099</v>
       </c>
       <c r="L52">
-        <f>L51+F52+G52+H52</f>
+        <f t="shared" si="15"/>
         <v>1.530166666666668</v>
       </c>
       <c r="M52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-9.0299999999999994</v>
       </c>
       <c r="N52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="O52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.1089999999999995</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.7089999999999996</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7727,59 +7728,59 @@
         <v>3.5</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22500000000000001</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H53">
-        <f>$V$2*M53</f>
+        <f t="shared" si="16"/>
         <v>0.46016666666666656</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5749999999999997</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.17966666666666625</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.378000000000001</v>
       </c>
       <c r="L53">
-        <f>L52+F53+G53+H53</f>
+        <f t="shared" si="15"/>
         <v>1.7733333333333345</v>
       </c>
       <c r="M53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5338888888888886</v>
       </c>
       <c r="N53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.375</v>
       </c>
       <c r="O53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91483333333333339</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7749999999999999</v>
       </c>
       <c r="R53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.2351666666666663</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7798,59 +7799,59 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22500000000000001</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H54">
-        <f>$V$2*M54</f>
+        <f t="shared" si="16"/>
         <v>-4.1500000000000002E-2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3499999999999996</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.22116666666666626</v>
       </c>
       <c r="K54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3850000000000009</v>
       </c>
       <c r="L54">
-        <f>L53+F54+G54+H54</f>
+        <f t="shared" si="15"/>
         <v>1.5138333333333343</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.13833333333333334</v>
       </c>
       <c r="N54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="O54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1085</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5914999999999999</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7869,59 +7870,59 @@
         <v>2.5</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22500000000000001</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H55">
-        <f>$V$2*M55</f>
+        <f t="shared" si="16"/>
         <v>1.6666666666666668E-3</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1249999999999996</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21949999999999958</v>
       </c>
       <c r="K55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3910000000000009</v>
       </c>
       <c r="L55">
-        <f>L54+F55+G55+H55</f>
+        <f t="shared" si="15"/>
         <v>1.2965000000000009</v>
       </c>
       <c r="M55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="N55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="O55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.92333333333333334</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.3250000000000002</v>
       </c>
       <c r="R55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3266666666666667</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7940,59 +7941,59 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22500000000000001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H56">
-        <f>$V$2*M56</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89999999999999958</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21949999999999958</v>
       </c>
       <c r="K56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39600000000000068</v>
       </c>
       <c r="L56">
-        <f>L55+F56+G56+H56</f>
+        <f t="shared" si="15"/>
         <v>1.0765000000000007</v>
       </c>
       <c r="M56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="O56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1</v>
       </c>
       <c r="R56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8011,59 +8012,59 @@
         <v>1.6000000000000014</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.17999999999999935</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H57">
-        <f>$V$2*M57</f>
+        <f t="shared" si="16"/>
         <v>3.3333333333340911E-4</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7200000000000002</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21916666666666618</v>
       </c>
       <c r="K57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4000000000000008</v>
       </c>
       <c r="L57">
-        <f>L56+F57+G57+H57</f>
+        <f t="shared" si="15"/>
         <v>0.90083333333333471</v>
       </c>
       <c r="M57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1111111111113637E-3</v>
       </c>
       <c r="N57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.52000000000000068</v>
       </c>
       <c r="O57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.51966666666666728</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9200000000000006</v>
       </c>
       <c r="R57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9203333333333341</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8082,59 +8083,59 @@
         <v>0.89999999999999858</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.31500000000000128</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2000000000000028E-3</v>
       </c>
       <c r="H58">
-        <f>$V$2*M58</f>
+        <f t="shared" si="16"/>
         <v>-4.8333333333334854E-3</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40499999999999892</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.22399999999999967</v>
       </c>
       <c r="K58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40320000000000067</v>
       </c>
       <c r="L58">
-        <f>L57+F58+G58+H58</f>
+        <f t="shared" si="15"/>
         <v>0.58419999999999994</v>
       </c>
       <c r="M58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.6111111111111617E-2</v>
       </c>
       <c r="N58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20499999999999935</v>
       </c>
       <c r="O58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20016666666666585</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6049999999999993</v>
       </c>
       <c r="R58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6098333333333328</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8153,59 +8154,59 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4999999999999041E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7999999999999971E-3</v>
       </c>
       <c r="H59">
-        <f>$V$2*M59</f>
+        <f t="shared" si="16"/>
         <v>5.0500000000000683E-2</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.17349999999999899</v>
       </c>
       <c r="K59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40500000000000069</v>
       </c>
       <c r="L59">
-        <f>L58+F59+G59+H59</f>
+        <f t="shared" si="15"/>
         <v>0.59150000000000158</v>
       </c>
       <c r="M59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16833333333333561</v>
       </c>
       <c r="N59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16000000000000031</v>
       </c>
       <c r="O59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10949999999999963</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5600000000000003</v>
       </c>
       <c r="R59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6105000000000009</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8224,59 +8225,59 @@
         <v>0.69999999999999929</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5000000000000644E-2</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6000000000000014E-3</v>
       </c>
       <c r="H60">
-        <f>$V$2*M60</f>
+        <f t="shared" si="16"/>
         <v>-0.13783333333333511</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31499999999999923</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.31133333333333413</v>
       </c>
       <c r="K60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40660000000000079</v>
       </c>
       <c r="L60">
-        <f>L59+F60+G60+H60</f>
+        <f t="shared" si="15"/>
         <v>0.41026666666666589</v>
       </c>
       <c r="M60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.45944444444445037</v>
       </c>
       <c r="N60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11499999999999966</v>
       </c>
       <c r="O60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.2833333333335454E-2</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5149999999999997</v>
       </c>
       <c r="R60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6528333333333347</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8295,59 +8296,59 @@
         <v>0.60000000000000142</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4999999999999041E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3999999999999987E-3</v>
       </c>
       <c r="H61">
-        <f>$V$2*M61</f>
+        <f t="shared" si="16"/>
         <v>0.23383333333333547</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27000000000000018</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.7499999999998653E-2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40800000000000086</v>
       </c>
       <c r="L61">
-        <f>L60+F61+G61+H61</f>
+        <f t="shared" si="15"/>
         <v>0.60050000000000237</v>
       </c>
       <c r="M61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.7794444444444516</v>
       </c>
       <c r="N61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0000000000000617E-2</v>
       </c>
       <c r="O61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.16383333333333486</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4700000000000006</v>
       </c>
       <c r="R61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7038333333333362</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8366,59 +8367,59 @@
         <v>0.5</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5000000000000644E-2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2000000000000029E-3</v>
       </c>
       <c r="H62">
-        <f>$V$2*M62</f>
+        <f t="shared" si="16"/>
         <v>-2.4000000000001704E-2</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22499999999999953</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10150000000000035</v>
       </c>
       <c r="K62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4092000000000009</v>
       </c>
       <c r="L62">
-        <f>L61+F62+G62+H62</f>
+        <f t="shared" si="15"/>
         <v>0.53270000000000006</v>
       </c>
       <c r="M62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-8.0000000000005678E-2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="O62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.9999999999829045E-4</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.425</v>
       </c>
       <c r="R62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4490000000000018</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8437,59 +8438,59 @@
         <v>0.39999999999999858</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.5000000000000644E-2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
       <c r="H63">
-        <f>$V$2*M63</f>
+        <f t="shared" si="16"/>
         <v>2.0000000000016506E-3</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999888</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.9499999999998701E-2</v>
       </c>
       <c r="K63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41020000000000095</v>
       </c>
       <c r="L63">
-        <f>L62+F63+G63+H63</f>
+        <f t="shared" si="15"/>
         <v>0.49070000000000108</v>
       </c>
       <c r="M63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6666666666721696E-3</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000656E-2</v>
       </c>
       <c r="O63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.2000000000002306E-2</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3799999999999992</v>
       </c>
       <c r="R63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3820000000000008</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8508,59 +8509,59 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4999999999999041E-2</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9999999999999722E-4</v>
       </c>
       <c r="H64">
-        <f>$V$2*M64</f>
+        <f t="shared" si="16"/>
         <v>-1.438849039914203E-15</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13499999999999984</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.9500000000000144E-2</v>
       </c>
       <c r="K64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41100000000000086</v>
       </c>
       <c r="L64">
-        <f>L63+F64+G64+H64</f>
+        <f t="shared" si="15"/>
         <v>0.44650000000000062</v>
       </c>
       <c r="M64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.7961634663806766E-15</v>
       </c>
       <c r="N64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.4999999999999697E-2</v>
       </c>
       <c r="O64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.500000000000114E-2</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3350000000000002</v>
       </c>
       <c r="R64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3350000000000015</v>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8579,59 +8580,59 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000147E-4</v>
       </c>
       <c r="H65">
-        <f>$V$2*M65</f>
+        <f t="shared" si="16"/>
         <v>3.3333333333336769E-4</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13499999999999984</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.9166666666666778E-2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41160000000000091</v>
       </c>
       <c r="L65">
-        <f>L64+F65+G65+H65</f>
+        <f t="shared" si="15"/>
         <v>0.44743333333333396</v>
       </c>
       <c r="M65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1111111111112256E-3</v>
       </c>
       <c r="N65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.4999999999999697E-2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.5333333333333063E-2</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3350000000000002</v>
       </c>
       <c r="R65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3353333333333335</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8650,59 +8651,59 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000147E-4</v>
       </c>
       <c r="H66">
-        <f>$V$2*M66</f>
+        <f t="shared" si="16"/>
         <v>-3.8333333333319549E-3</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13499999999999984</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10299999999999873</v>
       </c>
       <c r="K66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41220000000000084</v>
       </c>
       <c r="L66">
-        <f>L65+F66+G66+H66</f>
+        <f t="shared" si="15"/>
         <v>0.44420000000000198</v>
       </c>
       <c r="M66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.2777777777773183E-2</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.4999999999999697E-2</v>
       </c>
       <c r="O66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.883333333333165E-2</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3350000000000002</v>
       </c>
       <c r="R66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3388333333333322</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8717,63 +8718,63 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E72" si="13">D67-C67</f>
+        <f t="shared" ref="E67:E72" si="17">D67-C67</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000147E-4</v>
       </c>
       <c r="H67">
-        <f>$V$2*M67</f>
+        <f t="shared" si="16"/>
         <v>3.6999999999999103E-2</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13499999999999984</v>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.5999999999999628E-2</v>
       </c>
       <c r="K67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41280000000000089</v>
       </c>
       <c r="L67">
-        <f>L66+F67+G67+H67</f>
+        <f t="shared" ref="L67:L72" si="18">L66+F67+G67+H67</f>
         <v>0.48180000000000106</v>
       </c>
       <c r="M67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12333333333333035</v>
       </c>
       <c r="N67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.4999999999999697E-2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.1019999999999988</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3350000000000002</v>
       </c>
       <c r="R67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3719999999999992</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8788,63 +8789,63 @@
         <v>20</v>
       </c>
       <c r="E68">
+        <f t="shared" si="17"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F72" si="19">$T$2*(E68-E67)</f>
+        <v>-4.5000000000000644E-2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G72" si="20">$U$2*E67</f>
+        <v>6.0000000000000147E-4</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="16"/>
+        <v>-4.1666666666665365E-3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I71" si="21">I67+F68</f>
+        <v>8.9999999999999192E-2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J72" si="22">J67+H68</f>
+        <v>-7.0166666666666169E-2</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K72" si="23">L68-J68-I68</f>
+        <v>0.41340000000000088</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="18"/>
+        <v>0.43323333333333386</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="8"/>
+        <v>-1.3888888888888454E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="9"/>
+        <v>-0.11000000000000033</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="10"/>
+        <v>-0.11416666666666687</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>1.2899999999999996</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="13"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="F68">
-        <f t="shared" ref="F68:F72" si="14">$T$2*(E68-E67)</f>
-        <v>-4.5000000000000644E-2</v>
-      </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G72" si="15">$U$2*E67</f>
-        <v>6.0000000000000147E-4</v>
-      </c>
-      <c r="H68">
-        <f>$V$2*M68</f>
-        <v>-4.1666666666665365E-3</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ref="I68:I72" si="16">I67+F68</f>
-        <v>8.9999999999999192E-2</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ref="J68:J72" si="17">J67+H68</f>
-        <v>-7.0166666666666169E-2</v>
-      </c>
-      <c r="K68">
-        <f t="shared" ref="K68:K72" si="18">L68-J68-I68</f>
-        <v>0.41340000000000088</v>
-      </c>
-      <c r="L68">
-        <f>L67+F68+G68+H68</f>
-        <v>0.43323333333333386</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="6"/>
-        <v>-1.3888888888888454E-2</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="7"/>
-        <v>-0.11000000000000033</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="8"/>
-        <v>-0.11416666666666687</v>
-      </c>
-      <c r="P68" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="10"/>
-        <v>1.2899999999999996</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="11"/>
         <v>1.294166666666666</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8859,63 +8860,63 @@
         <v>20</v>
       </c>
       <c r="E69">
+        <f t="shared" si="17"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="19"/>
+        <v>-4.4999999999999041E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="20"/>
+        <v>3.9999999999999861E-4</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="16"/>
+        <v>4.1666666666667672E-3</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="21"/>
+        <v>4.5000000000000151E-2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="22"/>
+        <v>-6.5999999999999406E-2</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="23"/>
+        <v>0.41380000000000083</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="18"/>
+        <v>0.39280000000000159</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="8"/>
+        <v>1.3888888888889225E-2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="9"/>
+        <v>-0.15499999999999936</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="10"/>
+        <v>-0.15916666666666612</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="12"/>
+        <v>1.2450000000000006</v>
+      </c>
+      <c r="R69">
         <f t="shared" si="13"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="F69">
+        <v>1.2491666666666674</v>
+      </c>
+      <c r="S69" t="str">
         <f t="shared" si="14"/>
-        <v>-4.4999999999999041E-2</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="15"/>
-        <v>3.9999999999999861E-4</v>
-      </c>
-      <c r="H69">
-        <f>$V$2*M69</f>
-        <v>4.1666666666667672E-3</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="16"/>
-        <v>4.5000000000000151E-2</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="17"/>
-        <v>-6.5999999999999406E-2</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="18"/>
-        <v>0.41380000000000083</v>
-      </c>
-      <c r="L69">
-        <f>L68+F69+G69+H69</f>
-        <v>0.39280000000000159</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="6"/>
-        <v>1.3888888888889225E-2</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="7"/>
-        <v>-0.15499999999999936</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="8"/>
-        <v>-0.15916666666666612</v>
-      </c>
-      <c r="P69" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="10"/>
-        <v>1.2450000000000006</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="11"/>
-        <v>1.2491666666666674</v>
-      </c>
-      <c r="S69" t="str">
-        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8930,63 +8931,63 @@
         <v>20</v>
       </c>
       <c r="E70">
+        <f t="shared" si="17"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="20"/>
+        <v>2.0000000000000286E-4</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="16"/>
+        <v>-3.6666666666667312E-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="21"/>
+        <v>4.5000000000000151E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="22"/>
+        <v>-0.10266666666666671</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="23"/>
+        <v>0.41400000000000081</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="18"/>
+        <v>0.35633333333333428</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="8"/>
+        <v>-0.12222222222222437</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="9"/>
+        <v>-0.15499999999999936</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="10"/>
+        <v>-0.19166666666666668</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="12"/>
+        <v>1.2450000000000006</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="13"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="F70">
+        <v>1.2816666666666678</v>
+      </c>
+      <c r="S70" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="15"/>
-        <v>2.0000000000000286E-4</v>
-      </c>
-      <c r="H70">
-        <f>$V$2*M70</f>
-        <v>-3.6666666666667312E-2</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="16"/>
-        <v>4.5000000000000151E-2</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="17"/>
-        <v>-0.10266666666666671</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="18"/>
-        <v>0.41400000000000081</v>
-      </c>
-      <c r="L70">
-        <f>L69+F70+G70+H70</f>
-        <v>0.35633333333333428</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="6"/>
-        <v>-0.12222222222222437</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="7"/>
-        <v>-0.15499999999999936</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="8"/>
-        <v>-0.19166666666666668</v>
-      </c>
-      <c r="P70" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="10"/>
-        <v>1.2450000000000006</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="11"/>
-        <v>1.2816666666666678</v>
-      </c>
-      <c r="S70" t="str">
-        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9001,63 +9002,63 @@
         <v>20</v>
       </c>
       <c r="E71">
+        <f t="shared" si="17"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="20"/>
+        <v>2.0000000000000286E-4</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="16"/>
+        <v>1.438849039914203E-15</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="21"/>
+        <v>4.5000000000000151E-2</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="22"/>
+        <v>-0.10266666666666527</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="23"/>
+        <v>0.41420000000000079</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="18"/>
+        <v>0.3565333333333357</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="8"/>
+        <v>4.7961634663806766E-15</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="9"/>
+        <v>-0.15499999999999936</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="10"/>
+        <v>-0.1550000000000008</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="12"/>
+        <v>1.2450000000000006</v>
+      </c>
+      <c r="R71">
         <f t="shared" si="13"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="F71">
+        <v>1.2450000000000019</v>
+      </c>
+      <c r="S71" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="15"/>
-        <v>2.0000000000000286E-4</v>
-      </c>
-      <c r="H71">
-        <f>$V$2*M71</f>
-        <v>1.438849039914203E-15</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="16"/>
-        <v>4.5000000000000151E-2</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="17"/>
-        <v>-0.10266666666666527</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="18"/>
-        <v>0.41420000000000079</v>
-      </c>
-      <c r="L71">
-        <f>L70+F71+G71+H71</f>
-        <v>0.3565333333333357</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="6"/>
-        <v>4.7961634663806766E-15</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="7"/>
-        <v>-0.15499999999999936</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="8"/>
-        <v>-0.1550000000000008</v>
-      </c>
-      <c r="P71" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="10"/>
-        <v>1.2450000000000006</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="11"/>
-        <v>1.2450000000000019</v>
-      </c>
-      <c r="S71" t="str">
-        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9072,19 +9073,19 @@
         <v>20</v>
       </c>
       <c r="E72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-4.5000000000000644E-2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.0000000000000286E-4</v>
       </c>
       <c r="H72">
-        <f>$V$2*M72</f>
+        <f t="shared" si="16"/>
         <v>3.6333333333332399E-2</v>
       </c>
       <c r="I72">
@@ -9092,43 +9093,43 @@
         <v>-4.9266146717741321E-16</v>
       </c>
       <c r="J72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-6.633333333333287E-2</v>
       </c>
       <c r="K72">
+        <f t="shared" si="23"/>
+        <v>0.41440000000000077</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="18"/>
-        <v>0.41440000000000077</v>
-      </c>
-      <c r="L72">
-        <f>L71+F72+G72+H72</f>
         <v>0.34806666666666741</v>
       </c>
       <c r="M72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12111111111110799</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2</v>
       </c>
       <c r="O72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.2363333333333324</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="R72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2363333333333324</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9137,4 +9138,51 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB4D13D-01B4-3043-B5CE-BAFF6D46881F}">
+  <dimension ref="C2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>-2.73</v>
+      </c>
+      <c r="E2">
+        <f>0.45*(-1.52--1.57)</f>
+        <v>2.250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f>C2*C3</f>
+        <v>-1.2284999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>C4-0.2</f>
+        <v>-1.4284999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>C5-ABS(1.1148)</f>
+        <v>-2.5432999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>